--- a/20天EnglishPod计划表.xlsx
+++ b/20天EnglishPod计划表.xlsx
@@ -71,11 +71,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -101,14 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -130,31 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,10 +145,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,16 +177,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,17 +200,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,16 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,37 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,144 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,30 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +525,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -557,160 +566,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,13 +732,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1858,9 +1858,15 @@
         <v>44707</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="8">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8">
+        <v>21</v>
+      </c>
       <c r="G24" s="8">
         <v>20</v>
       </c>
@@ -1885,9 +1891,15 @@
         <v>44708</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="8">
+        <v>22</v>
+      </c>
+      <c r="E25" s="8">
+        <v>22</v>
+      </c>
+      <c r="F25" s="8">
+        <v>22</v>
+      </c>
       <c r="G25" s="8">
         <v>21</v>
       </c>
@@ -1912,9 +1924,15 @@
         <v>44709</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="8">
+        <v>23</v>
+      </c>
+      <c r="E26" s="8">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8">
+        <v>23</v>
+      </c>
       <c r="G26" s="8">
         <v>22</v>
       </c>
@@ -1939,9 +1957,15 @@
         <v>44710</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="8">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8">
+        <v>24</v>
+      </c>
       <c r="G27" s="8">
         <v>23</v>
       </c>
@@ -1966,9 +1990,15 @@
         <v>44711</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="8">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8">
+        <v>25</v>
+      </c>
       <c r="G28" s="8">
         <v>24</v>
       </c>
@@ -1993,9 +2023,15 @@
         <v>44712</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="8">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8">
+        <v>26</v>
+      </c>
+      <c r="F29" s="8">
+        <v>26</v>
+      </c>
       <c r="G29" s="8">
         <v>25</v>
       </c>
@@ -2020,9 +2056,15 @@
         <v>44713</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="8">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8">
+        <v>27</v>
+      </c>
+      <c r="F30" s="8">
+        <v>27</v>
+      </c>
       <c r="G30" s="8">
         <v>26</v>
       </c>
@@ -2047,9 +2089,15 @@
         <v>44714</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="8">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8">
+        <v>28</v>
+      </c>
       <c r="G31" s="8">
         <v>27</v>
       </c>
@@ -2074,9 +2122,15 @@
         <v>44715</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="8">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8">
+        <v>29</v>
+      </c>
+      <c r="F32" s="8">
+        <v>29</v>
+      </c>
       <c r="G32" s="8">
         <v>28</v>
       </c>
@@ -2101,9 +2155,15 @@
         <v>44716</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="8">
+        <v>30</v>
+      </c>
+      <c r="E33" s="8">
+        <v>30</v>
+      </c>
+      <c r="F33" s="8">
+        <v>30</v>
+      </c>
       <c r="G33" s="8">
         <v>29</v>
       </c>

--- a/20天EnglishPod计划表.xlsx
+++ b/20天EnglishPod计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18420" windowHeight="11670"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="主表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>20天复习计划表</t>
   </si>
@@ -65,18 +65,42 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>013_Out Of Control Spending</t>
+  </si>
+  <si>
+    <t>014_I'm In Debt</t>
+  </si>
+  <si>
+    <t>015_I'm Sorry, I Love You</t>
+  </si>
+  <si>
+    <t>016_Turn the Left</t>
+  </si>
+  <si>
+    <t>017_Here Comes the Bride</t>
+  </si>
+  <si>
+    <t>018_Protest</t>
+  </si>
+  <si>
+    <t>019_Christmas Chronicles I</t>
+  </si>
+  <si>
+    <t>020_I Can See Clearly Now</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,13 +126,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -117,6 +134,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,32 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -185,8 +223,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +243,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,22 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,43 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,139 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +509,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -508,17 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +582,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,15 +1135,15 @@
   <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.95" style="2" customWidth="1"/>
     <col min="4" max="6" width="8.625" style="2" customWidth="1"/>
     <col min="7" max="10" width="5.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.875" style="2" customWidth="1"/>
@@ -1593,7 +1617,9 @@
       <c r="B16" s="7">
         <v>44699</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="8">
         <v>13</v>
       </c>
@@ -1626,7 +1652,9 @@
       <c r="B17" s="7">
         <v>44700</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D17" s="8">
         <v>14</v>
       </c>
@@ -1659,7 +1687,9 @@
       <c r="B18" s="7">
         <v>44701</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="8">
         <v>15</v>
       </c>
@@ -1692,7 +1722,9 @@
       <c r="B19" s="7">
         <v>44702</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="8">
         <v>16</v>
       </c>
@@ -1725,7 +1757,9 @@
       <c r="B20" s="7">
         <v>44703</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="8">
         <v>17</v>
       </c>
@@ -1758,7 +1792,9 @@
       <c r="B21" s="7">
         <v>44704</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="8">
         <v>18</v>
       </c>
@@ -1791,7 +1827,9 @@
       <c r="B22" s="7">
         <v>44705</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="8">
         <v>19</v>
       </c>
@@ -1824,7 +1862,9 @@
       <c r="B23" s="7">
         <v>44706</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="8">
         <v>20</v>
       </c>
